--- a/Code/Results/Cases/Case_1_126/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_126/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.022681910556448</v>
+        <v>1.069367070471715</v>
       </c>
       <c r="D2">
-        <v>1.047790410957768</v>
+        <v>1.052846361169229</v>
       </c>
       <c r="E2">
-        <v>1.030755091858109</v>
+        <v>1.073278608458225</v>
       </c>
       <c r="F2">
-        <v>1.034599898486616</v>
+        <v>1.082737090461309</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.060146172999198</v>
+        <v>1.051892299978073</v>
       </c>
       <c r="J2">
-        <v>1.04420474565088</v>
+        <v>1.074302157090912</v>
       </c>
       <c r="K2">
-        <v>1.058621802693288</v>
+        <v>1.055593964634548</v>
       </c>
       <c r="L2">
-        <v>1.041801963038917</v>
+        <v>1.075970892234366</v>
       </c>
       <c r="M2">
-        <v>1.045597361992016</v>
+        <v>1.0854045293636</v>
       </c>
       <c r="N2">
-        <v>1.045687636161663</v>
+        <v>1.075827789378161</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.031706274687616</v>
+        <v>1.071070588279087</v>
       </c>
       <c r="D3">
-        <v>1.052460036703722</v>
+        <v>1.053687614606996</v>
       </c>
       <c r="E3">
-        <v>1.03894765627729</v>
+        <v>1.074856914062998</v>
       </c>
       <c r="F3">
-        <v>1.043576749652345</v>
+        <v>1.084498441296254</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.063378511500651</v>
+        <v>1.052385179423964</v>
       </c>
       <c r="J3">
-        <v>1.051368390343995</v>
+        <v>1.075659256580114</v>
       </c>
       <c r="K3">
-        <v>1.062462957113344</v>
+        <v>1.056248072374653</v>
       </c>
       <c r="L3">
-        <v>1.049105315278682</v>
+        <v>1.077364229904162</v>
       </c>
       <c r="M3">
-        <v>1.053680840860701</v>
+        <v>1.086982293062067</v>
       </c>
       <c r="N3">
-        <v>1.052861454051923</v>
+        <v>1.077186816104299</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.037338116370633</v>
+        <v>1.072170058252833</v>
       </c>
       <c r="D4">
-        <v>1.055383369176699</v>
+        <v>1.054230578423849</v>
       </c>
       <c r="E4">
-        <v>1.044062252482505</v>
+        <v>1.075875342352951</v>
       </c>
       <c r="F4">
-        <v>1.049184937450358</v>
+        <v>1.085635611722394</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.065383543838013</v>
+        <v>1.05270164082527</v>
       </c>
       <c r="J4">
-        <v>1.055832642216948</v>
+        <v>1.076534219499119</v>
       </c>
       <c r="K4">
-        <v>1.064856339051525</v>
+        <v>1.056669297561382</v>
       </c>
       <c r="L4">
-        <v>1.053656451521535</v>
+        <v>1.078262479744705</v>
       </c>
       <c r="M4">
-        <v>1.058723884559001</v>
+        <v>1.088000210609618</v>
       </c>
       <c r="N4">
-        <v>1.057332045674593</v>
+        <v>1.078063021571008</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.039659395882029</v>
+        <v>1.072631614572007</v>
       </c>
       <c r="D5">
-        <v>1.056590204519255</v>
+        <v>1.054458513326989</v>
       </c>
       <c r="E5">
-        <v>1.046170707234059</v>
+        <v>1.076302822519066</v>
       </c>
       <c r="F5">
-        <v>1.051497847644606</v>
+        <v>1.086113084086075</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.066206938037551</v>
+        <v>1.052834095423016</v>
       </c>
       <c r="J5">
-        <v>1.057671084433451</v>
+        <v>1.076901306272605</v>
       </c>
       <c r="K5">
-        <v>1.065841741912444</v>
+        <v>1.056845899724633</v>
       </c>
       <c r="L5">
-        <v>1.055530635428515</v>
+        <v>1.078639318273533</v>
       </c>
       <c r="M5">
-        <v>1.060802031560942</v>
+        <v>1.08842743797181</v>
       </c>
       <c r="N5">
-        <v>1.059173098689916</v>
+        <v>1.078430629649819</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.040046521682387</v>
+        <v>1.072709073567597</v>
       </c>
       <c r="D6">
-        <v>1.056791577193897</v>
+        <v>1.054496765538061</v>
       </c>
       <c r="E6">
-        <v>1.046522359285877</v>
+        <v>1.076374559578737</v>
       </c>
       <c r="F6">
-        <v>1.051883657261816</v>
+        <v>1.086193219373413</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.06634407710715</v>
+        <v>1.052856300905166</v>
       </c>
       <c r="J6">
-        <v>1.057977590864836</v>
+        <v>1.076962898249083</v>
       </c>
       <c r="K6">
-        <v>1.066006011805965</v>
+        <v>1.056875523925121</v>
       </c>
       <c r="L6">
-        <v>1.055843098605233</v>
+        <v>1.078702545398452</v>
       </c>
       <c r="M6">
-        <v>1.06114858159889</v>
+        <v>1.08849913035799</v>
       </c>
       <c r="N6">
-        <v>1.05948004039559</v>
+        <v>1.078492309093967</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.037369311381095</v>
+        <v>1.072176228168148</v>
       </c>
       <c r="D7">
-        <v>1.055399580214129</v>
+        <v>1.054233625380609</v>
       </c>
       <c r="E7">
-        <v>1.044090586037509</v>
+        <v>1.07588105696714</v>
       </c>
       <c r="F7">
-        <v>1.049216014592506</v>
+        <v>1.08564199404619</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.065394621296122</v>
+        <v>1.052703412985897</v>
       </c>
       <c r="J7">
-        <v>1.055857354900055</v>
+        <v>1.076539127452388</v>
       </c>
       <c r="K7">
-        <v>1.064869586094449</v>
+        <v>1.056671659211907</v>
       </c>
       <c r="L7">
-        <v>1.05368164479789</v>
+        <v>1.078267518150141</v>
       </c>
       <c r="M7">
-        <v>1.058751814027668</v>
+        <v>1.088005921995167</v>
       </c>
       <c r="N7">
-        <v>1.057356793452544</v>
+        <v>1.078067936494134</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.025776829099344</v>
+        <v>1.069943374791409</v>
       </c>
       <c r="D8">
-        <v>1.04938974934025</v>
+        <v>1.053130955638297</v>
       </c>
       <c r="E8">
-        <v>1.03356430006852</v>
+        <v>1.073812600355125</v>
       </c>
       <c r="F8">
-        <v>1.037677212837089</v>
+        <v>1.083332882077527</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.061257224540221</v>
+        <v>1.052059383765366</v>
       </c>
       <c r="J8">
-        <v>1.046662837055005</v>
+        <v>1.074761458818157</v>
       </c>
       <c r="K8">
-        <v>1.059939819069351</v>
+        <v>1.055815445491883</v>
       </c>
       <c r="L8">
-        <v>1.044308033450215</v>
+        <v>1.076442474660482</v>
       </c>
       <c r="M8">
-        <v>1.048369907453691</v>
+        <v>1.085938371413329</v>
       </c>
       <c r="N8">
-        <v>1.048149218337529</v>
+        <v>1.076287743366541</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.003588608740124</v>
+        <v>1.065986562426904</v>
       </c>
       <c r="D9">
-        <v>1.037976748020335</v>
+        <v>1.051177129209921</v>
       </c>
       <c r="E9">
-        <v>1.013436278011229</v>
+        <v>1.070145369123661</v>
       </c>
       <c r="F9">
-        <v>1.01564436462941</v>
+        <v>1.079243823024055</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053243144585872</v>
+        <v>1.050905454610062</v>
       </c>
       <c r="J9">
-        <v>1.029015277318122</v>
+        <v>1.071604171129086</v>
       </c>
       <c r="K9">
-        <v>1.050482326457698</v>
+        <v>1.05429097932591</v>
       </c>
       <c r="L9">
-        <v>1.026315058464649</v>
+        <v>1.073200440912244</v>
       </c>
       <c r="M9">
-        <v>1.028488621568303</v>
+        <v>1.082271499842906</v>
       </c>
       <c r="N9">
-        <v>1.030476597041616</v>
+        <v>1.073125971966806</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9873312014711133</v>
+        <v>1.063332833442516</v>
       </c>
       <c r="D10">
-        <v>1.029699718418286</v>
+        <v>1.049867065189327</v>
       </c>
       <c r="E10">
-        <v>0.9987087795976486</v>
+        <v>1.067684698031412</v>
       </c>
       <c r="F10">
-        <v>0.9995423884326147</v>
+        <v>1.076503357811949</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.0473143208644</v>
+        <v>1.050123078060673</v>
       </c>
       <c r="J10">
-        <v>1.016056635826733</v>
+        <v>1.069481900813786</v>
       </c>
       <c r="K10">
-        <v>1.043552670582305</v>
+        <v>1.053263839170663</v>
       </c>
       <c r="L10">
-        <v>1.013101386628995</v>
+        <v>1.071020783694938</v>
       </c>
       <c r="M10">
-        <v>1.01391991011582</v>
+        <v>1.079810221834258</v>
       </c>
       <c r="N10">
-        <v>1.017499552792932</v>
+        <v>1.071000687784231</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9798655579292657</v>
+        <v>1.062179777389083</v>
       </c>
       <c r="D11">
-        <v>1.025925369141494</v>
+        <v>1.049297951054669</v>
       </c>
       <c r="E11">
-        <v>0.9919524937876872</v>
+        <v>1.066615255989229</v>
       </c>
       <c r="F11">
-        <v>0.992159537914671</v>
+        <v>1.075313081842417</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044580391779329</v>
+        <v>1.049781134562833</v>
       </c>
       <c r="J11">
-        <v>1.010100622799433</v>
+        <v>1.068558640491132</v>
       </c>
       <c r="K11">
-        <v>1.040374390286356</v>
+        <v>1.052816446968763</v>
       </c>
       <c r="L11">
-        <v>1.007027786956742</v>
+        <v>1.07007245468698</v>
       </c>
       <c r="M11">
-        <v>1.007230844204142</v>
+        <v>1.078740312801012</v>
       </c>
       <c r="N11">
-        <v>1.011535081543969</v>
+        <v>1.070076116326018</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9770202753900277</v>
+        <v>1.061750866520089</v>
       </c>
       <c r="D12">
-        <v>1.024491518338305</v>
+        <v>1.049086273843678</v>
       </c>
       <c r="E12">
-        <v>0.9893787814278545</v>
+        <v>1.066217407349485</v>
       </c>
       <c r="F12">
-        <v>0.989347680254236</v>
+        <v>1.074870396460832</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043536964168692</v>
+        <v>1.049653640041012</v>
       </c>
       <c r="J12">
-        <v>1.007830055889514</v>
+        <v>1.068215039747553</v>
       </c>
       <c r="K12">
-        <v>1.039164075251279</v>
+        <v>1.052649864578231</v>
       </c>
       <c r="L12">
-        <v>1.004712335948944</v>
+        <v>1.069719508567052</v>
       </c>
       <c r="M12">
-        <v>1.004681847568577</v>
+        <v>1.078342259730862</v>
       </c>
       <c r="N12">
-        <v>1.0092612901686</v>
+        <v>1.069732027629972</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9776340141605261</v>
+        <v>1.061842897448081</v>
       </c>
       <c r="D13">
-        <v>1.024800586603362</v>
+        <v>1.049131692210494</v>
       </c>
       <c r="E13">
-        <v>0.9899338827667169</v>
+        <v>1.066302775107383</v>
       </c>
       <c r="F13">
-        <v>0.9899541220199269</v>
+        <v>1.074965379779009</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043762098557865</v>
+        <v>1.049681009923101</v>
       </c>
       <c r="J13">
-        <v>1.008319851886662</v>
+        <v>1.06828877340408</v>
       </c>
       <c r="K13">
-        <v>1.039425093918874</v>
+        <v>1.052685615299008</v>
       </c>
       <c r="L13">
-        <v>1.005211816731205</v>
+        <v>1.069795248377596</v>
       </c>
       <c r="M13">
-        <v>1.005231659162374</v>
+        <v>1.07842767274591</v>
       </c>
       <c r="N13">
-        <v>1.009751781732245</v>
+        <v>1.069805865996748</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9796318919034073</v>
+        <v>1.062144336120505</v>
       </c>
       <c r="D14">
-        <v>1.02580751826857</v>
+        <v>1.04928045955187</v>
       </c>
       <c r="E14">
-        <v>0.9917411042050808</v>
+        <v>1.066582382238759</v>
       </c>
       <c r="F14">
-        <v>0.9919285780362382</v>
+        <v>1.075276500936099</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044494729902454</v>
+        <v>1.049770605679051</v>
       </c>
       <c r="J14">
-        <v>1.009914166505825</v>
+        <v>1.068530251908536</v>
       </c>
       <c r="K14">
-        <v>1.040274972064005</v>
+        <v>1.05280268542783</v>
       </c>
       <c r="L14">
-        <v>1.006837645999398</v>
+        <v>1.070043294305403</v>
       </c>
       <c r="M14">
-        <v>1.007021502937372</v>
+        <v>1.078707422785721</v>
       </c>
       <c r="N14">
-        <v>1.011348360461037</v>
+        <v>1.07004768742838</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9808530107519311</v>
+        <v>1.062329980480391</v>
       </c>
       <c r="D15">
-        <v>1.026423587962801</v>
+        <v>1.04937208237713</v>
       </c>
       <c r="E15">
-        <v>0.9928458590419874</v>
+        <v>1.066754576074417</v>
       </c>
       <c r="F15">
-        <v>0.9931356315988514</v>
+        <v>1.07546811769995</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044942332977029</v>
+        <v>1.049825744619674</v>
       </c>
       <c r="J15">
-        <v>1.010888546737256</v>
+        <v>1.068678946800321</v>
       </c>
       <c r="K15">
-        <v>1.040794565491475</v>
+        <v>1.05287476290041</v>
       </c>
       <c r="L15">
-        <v>1.007831279153527</v>
+        <v>1.070196031109258</v>
       </c>
       <c r="M15">
-        <v>1.008115516563639</v>
+        <v>1.078879700559489</v>
       </c>
       <c r="N15">
-        <v>1.01232412442416</v>
+        <v>1.070196593483966</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9878170284909942</v>
+        <v>1.063409272762528</v>
       </c>
       <c r="D16">
-        <v>1.029945931155201</v>
+        <v>1.04990479604125</v>
       </c>
       <c r="E16">
-        <v>0.9991486009630641</v>
+        <v>1.067755588682239</v>
       </c>
       <c r="F16">
-        <v>1.000023074908849</v>
+        <v>1.076582274398273</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047492016189238</v>
+        <v>1.050145704497598</v>
       </c>
       <c r="J16">
-        <v>1.016444128626137</v>
+        <v>1.069543082684512</v>
       </c>
       <c r="K16">
-        <v>1.043759609426999</v>
+        <v>1.053293475175622</v>
       </c>
       <c r="L16">
-        <v>1.01349652171413</v>
+        <v>1.071083624598952</v>
       </c>
       <c r="M16">
-        <v>1.014355236223644</v>
+        <v>1.07988113915084</v>
       </c>
       <c r="N16">
-        <v>1.017887595876557</v>
+        <v>1.07106195654023</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9920659630159323</v>
+        <v>1.064085208094909</v>
       </c>
       <c r="D17">
-        <v>1.032102293750282</v>
+        <v>1.05023845484842</v>
       </c>
       <c r="E17">
-        <v>1.002995961785336</v>
+        <v>1.068382427264984</v>
       </c>
       <c r="F17">
-        <v>1.004228345041448</v>
+        <v>1.077280169547159</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049044855219059</v>
+        <v>1.05034555462376</v>
       </c>
       <c r="J17">
-        <v>1.019832486290896</v>
+        <v>1.070083970188753</v>
       </c>
       <c r="K17">
-        <v>1.045569930235497</v>
+        <v>1.053555413466054</v>
       </c>
       <c r="L17">
-        <v>1.016951664067133</v>
+        <v>1.071639167083634</v>
       </c>
       <c r="M17">
-        <v>1.018162640020646</v>
+        <v>1.080508190068992</v>
       </c>
       <c r="N17">
-        <v>1.02128076539785</v>
+        <v>1.071603612166768</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.994503809515985</v>
+        <v>1.064479087505987</v>
       </c>
       <c r="D18">
-        <v>1.033341948626109</v>
+        <v>1.050432894463665</v>
       </c>
       <c r="E18">
-        <v>1.005204022302233</v>
+        <v>1.068747671074733</v>
       </c>
       <c r="F18">
-        <v>1.006642190717508</v>
+        <v>1.077686890311059</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049934734062035</v>
+        <v>1.050461818394505</v>
       </c>
       <c r="J18">
-        <v>1.021776076504006</v>
+        <v>1.070399046485356</v>
       </c>
       <c r="K18">
-        <v>1.046608947918964</v>
+        <v>1.053707943885148</v>
       </c>
       <c r="L18">
-        <v>1.018933528111883</v>
+        <v>1.071962770226518</v>
       </c>
       <c r="M18">
-        <v>1.020347247870694</v>
+        <v>1.080873538048646</v>
       </c>
       <c r="N18">
-        <v>1.023227115731996</v>
+        <v>1.071919135907852</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9953284105561457</v>
+        <v>1.064613325899027</v>
       </c>
       <c r="D19">
-        <v>1.033761657183872</v>
+        <v>1.050499163327238</v>
       </c>
       <c r="E19">
-        <v>1.005950997920138</v>
+        <v>1.068872145712582</v>
       </c>
       <c r="F19">
-        <v>1.007458847748078</v>
+        <v>1.077825512799177</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050235547922463</v>
+        <v>1.050501409690359</v>
       </c>
       <c r="J19">
-        <v>1.022433407199406</v>
+        <v>1.070506409527151</v>
       </c>
       <c r="K19">
-        <v>1.046960442040237</v>
+        <v>1.053759909934848</v>
       </c>
       <c r="L19">
-        <v>1.019603797419611</v>
+        <v>1.072073037136225</v>
       </c>
       <c r="M19">
-        <v>1.021086202469816</v>
+        <v>1.08099804487615</v>
       </c>
       <c r="N19">
-        <v>1.02388537991238</v>
+        <v>1.072026651417481</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9916143346365272</v>
+        <v>1.064012726292989</v>
       </c>
       <c r="D20">
-        <v>1.031872832138846</v>
+        <v>1.050202674857543</v>
       </c>
       <c r="E20">
-        <v>1.002586951821671</v>
+        <v>1.068315212893092</v>
       </c>
       <c r="F20">
-        <v>1.003781247346843</v>
+        <v>1.077205328297126</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048879910548763</v>
+        <v>1.050324144226796</v>
       </c>
       <c r="J20">
-        <v>1.019472381128194</v>
+        <v>1.070025981027323</v>
       </c>
       <c r="K20">
-        <v>1.04537746964137</v>
+        <v>1.053527336251833</v>
       </c>
       <c r="L20">
-        <v>1.016584464815223</v>
+        <v>1.07157960777503</v>
       </c>
       <c r="M20">
-        <v>1.017757932350388</v>
+        <v>1.080440954953394</v>
       </c>
       <c r="N20">
-        <v>1.020920148844513</v>
+        <v>1.071545540654077</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9790456335414044</v>
+        <v>1.062055587049491</v>
       </c>
       <c r="D21">
-        <v>1.025511911697236</v>
+        <v>1.049236659129428</v>
       </c>
       <c r="E21">
-        <v>0.9912107568687779</v>
+        <v>1.066500061882986</v>
       </c>
       <c r="F21">
-        <v>0.9913491398924775</v>
+        <v>1.075184899217881</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044279784839623</v>
+        <v>1.04974423529644</v>
       </c>
       <c r="J21">
-        <v>1.009446345856074</v>
+        <v>1.068459160862761</v>
       </c>
       <c r="K21">
-        <v>1.040025553046511</v>
+        <v>1.052768222305595</v>
       </c>
       <c r="L21">
-        <v>1.006360579568105</v>
+        <v>1.069970270254712</v>
       </c>
       <c r="M21">
-        <v>1.006496280075992</v>
+        <v>1.078625061204233</v>
       </c>
       <c r="N21">
-        <v>1.010879875452303</v>
+        <v>1.069976495425164</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9707201485291628</v>
+        <v>1.060821491757347</v>
       </c>
       <c r="D22">
-        <v>1.021325953121272</v>
+        <v>1.048627647364996</v>
       </c>
       <c r="E22">
-        <v>0.9836824912730082</v>
+        <v>1.065355265625448</v>
       </c>
       <c r="F22">
-        <v>0.9831252246695655</v>
+        <v>1.073911303937698</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041224102355228</v>
+        <v>1.049376835141342</v>
       </c>
       <c r="J22">
-        <v>1.002801512860328</v>
+        <v>1.067470208764945</v>
       </c>
       <c r="K22">
-        <v>1.036486455122579</v>
+        <v>1.052288614451337</v>
       </c>
       <c r="L22">
-        <v>0.9995842830559899</v>
+        <v>1.068954390172885</v>
       </c>
       <c r="M22">
-        <v>0.9990385536295169</v>
+        <v>1.077479618632395</v>
       </c>
       <c r="N22">
-        <v>1.004225606031531</v>
+        <v>1.068986138901936</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9751769039786544</v>
+        <v>1.061476052749939</v>
       </c>
       <c r="D23">
-        <v>1.023563958252971</v>
+        <v>1.048950653195272</v>
       </c>
       <c r="E23">
-        <v>0.9877117247950608</v>
+        <v>1.065962484611618</v>
       </c>
       <c r="F23">
-        <v>0.987526513339274</v>
+        <v>1.074586776888002</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042860572107772</v>
+        <v>1.049571867019757</v>
       </c>
       <c r="J23">
-        <v>1.006358868913173</v>
+        <v>1.067994838824317</v>
       </c>
       <c r="K23">
-        <v>1.038380279944183</v>
+        <v>1.052543085616562</v>
       </c>
       <c r="L23">
-        <v>1.003212050589806</v>
+        <v>1.069493314055253</v>
       </c>
       <c r="M23">
-        <v>1.003030542316059</v>
+        <v>1.078087197338162</v>
       </c>
       <c r="N23">
-        <v>1.007788013938006</v>
+        <v>1.069511513996168</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.991818530571855</v>
+        <v>1.064045478880179</v>
       </c>
       <c r="D24">
-        <v>1.031976571703335</v>
+        <v>1.050218842845199</v>
       </c>
       <c r="E24">
-        <v>1.002771876668183</v>
+        <v>1.068345585350166</v>
       </c>
       <c r="F24">
-        <v>1.003983391549626</v>
+        <v>1.077239146916753</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04895449076456</v>
+        <v>1.050333819607319</v>
       </c>
       <c r="J24">
-        <v>1.019635197983979</v>
+        <v>1.070052185113049</v>
       </c>
       <c r="K24">
-        <v>1.045464486337462</v>
+        <v>1.053540023920514</v>
       </c>
       <c r="L24">
-        <v>1.01675048927787</v>
+        <v>1.07160652140802</v>
       </c>
       <c r="M24">
-        <v>1.017940913626581</v>
+        <v>1.080471336844456</v>
       </c>
       <c r="N24">
-        <v>1.021083196918909</v>
+        <v>1.071571781952611</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.009559843914144</v>
+        <v>1.0670122209885</v>
       </c>
       <c r="D25">
-        <v>1.041035635942584</v>
+        <v>1.051683544793807</v>
       </c>
       <c r="E25">
-        <v>1.018850195238957</v>
+        <v>1.071096168954119</v>
       </c>
       <c r="F25">
-        <v>1.021567217433323</v>
+        <v>1.080303418477465</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.055410075198668</v>
+        <v>1.051206060195356</v>
       </c>
       <c r="J25">
-        <v>1.033769709410559</v>
+        <v>1.072423420485558</v>
       </c>
       <c r="K25">
-        <v>1.053028655298514</v>
+        <v>1.054686979248363</v>
       </c>
       <c r="L25">
-        <v>1.031162767624049</v>
+        <v>1.074041753096982</v>
       </c>
       <c r="M25">
-        <v>1.033839707682353</v>
+        <v>1.08322235481133</v>
       </c>
       <c r="N25">
-        <v>1.035237780972965</v>
+        <v>1.073946384751334</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_126/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_126/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.069367070471715</v>
+        <v>1.022681910556447</v>
       </c>
       <c r="D2">
-        <v>1.052846361169229</v>
+        <v>1.047790410957767</v>
       </c>
       <c r="E2">
-        <v>1.073278608458225</v>
+        <v>1.030755091858107</v>
       </c>
       <c r="F2">
-        <v>1.082737090461309</v>
+        <v>1.034599898486614</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051892299978073</v>
+        <v>1.060146172999198</v>
       </c>
       <c r="J2">
-        <v>1.074302157090912</v>
+        <v>1.044204745650879</v>
       </c>
       <c r="K2">
-        <v>1.055593964634548</v>
+        <v>1.058621802693288</v>
       </c>
       <c r="L2">
-        <v>1.075970892234366</v>
+        <v>1.041801963038915</v>
       </c>
       <c r="M2">
-        <v>1.0854045293636</v>
+        <v>1.045597361992013</v>
       </c>
       <c r="N2">
-        <v>1.075827789378161</v>
+        <v>1.045687636161661</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.071070588279087</v>
+        <v>1.031706274687612</v>
       </c>
       <c r="D3">
-        <v>1.053687614606996</v>
+        <v>1.05246003670372</v>
       </c>
       <c r="E3">
-        <v>1.074856914062998</v>
+        <v>1.038947656277286</v>
       </c>
       <c r="F3">
-        <v>1.084498441296254</v>
+        <v>1.043576749652341</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052385179423964</v>
+        <v>1.063378511500649</v>
       </c>
       <c r="J3">
-        <v>1.075659256580114</v>
+        <v>1.051368390343991</v>
       </c>
       <c r="K3">
-        <v>1.056248072374653</v>
+        <v>1.062462957113342</v>
       </c>
       <c r="L3">
-        <v>1.077364229904162</v>
+        <v>1.049105315278679</v>
       </c>
       <c r="M3">
-        <v>1.086982293062067</v>
+        <v>1.053680840860697</v>
       </c>
       <c r="N3">
-        <v>1.077186816104299</v>
+        <v>1.052861454051919</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.072170058252833</v>
+        <v>1.037338116370635</v>
       </c>
       <c r="D4">
-        <v>1.054230578423849</v>
+        <v>1.055383369176701</v>
       </c>
       <c r="E4">
-        <v>1.075875342352951</v>
+        <v>1.044062252482507</v>
       </c>
       <c r="F4">
-        <v>1.085635611722394</v>
+        <v>1.04918493745036</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05270164082527</v>
+        <v>1.065383543838013</v>
       </c>
       <c r="J4">
-        <v>1.076534219499119</v>
+        <v>1.05583264221695</v>
       </c>
       <c r="K4">
-        <v>1.056669297561382</v>
+        <v>1.064856339051526</v>
       </c>
       <c r="L4">
-        <v>1.078262479744705</v>
+        <v>1.053656451521537</v>
       </c>
       <c r="M4">
-        <v>1.088000210609618</v>
+        <v>1.058723884559003</v>
       </c>
       <c r="N4">
-        <v>1.078063021571008</v>
+        <v>1.057332045674595</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.072631614572007</v>
+        <v>1.039659395882029</v>
       </c>
       <c r="D5">
-        <v>1.054458513326989</v>
+        <v>1.056590204519256</v>
       </c>
       <c r="E5">
-        <v>1.076302822519066</v>
+        <v>1.046170707234059</v>
       </c>
       <c r="F5">
-        <v>1.086113084086075</v>
+        <v>1.051497847644605</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052834095423016</v>
+        <v>1.066206938037552</v>
       </c>
       <c r="J5">
-        <v>1.076901306272605</v>
+        <v>1.057671084433451</v>
       </c>
       <c r="K5">
-        <v>1.056845899724633</v>
+        <v>1.065841741912444</v>
       </c>
       <c r="L5">
-        <v>1.078639318273533</v>
+        <v>1.055530635428514</v>
       </c>
       <c r="M5">
-        <v>1.08842743797181</v>
+        <v>1.060802031560942</v>
       </c>
       <c r="N5">
-        <v>1.078430629649819</v>
+        <v>1.059173098689916</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.072709073567597</v>
+        <v>1.040046521682384</v>
       </c>
       <c r="D6">
-        <v>1.054496765538061</v>
+        <v>1.056791577193896</v>
       </c>
       <c r="E6">
-        <v>1.076374559578737</v>
+        <v>1.046522359285874</v>
       </c>
       <c r="F6">
-        <v>1.086193219373413</v>
+        <v>1.051883657261813</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052856300905166</v>
+        <v>1.066344077107148</v>
       </c>
       <c r="J6">
-        <v>1.076962898249083</v>
+        <v>1.057977590864833</v>
       </c>
       <c r="K6">
-        <v>1.056875523925121</v>
+        <v>1.066006011805964</v>
       </c>
       <c r="L6">
-        <v>1.078702545398452</v>
+        <v>1.05584309860523</v>
       </c>
       <c r="M6">
-        <v>1.08849913035799</v>
+        <v>1.061148581598887</v>
       </c>
       <c r="N6">
-        <v>1.078492309093967</v>
+        <v>1.059480040395587</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.072176228168148</v>
+        <v>1.037369311381094</v>
       </c>
       <c r="D7">
-        <v>1.054233625380609</v>
+        <v>1.055399580214127</v>
       </c>
       <c r="E7">
-        <v>1.07588105696714</v>
+        <v>1.044090586037509</v>
       </c>
       <c r="F7">
-        <v>1.08564199404619</v>
+        <v>1.049216014592505</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052703412985897</v>
+        <v>1.065394621296121</v>
       </c>
       <c r="J7">
-        <v>1.076539127452388</v>
+        <v>1.055857354900053</v>
       </c>
       <c r="K7">
-        <v>1.056671659211907</v>
+        <v>1.064869586094448</v>
       </c>
       <c r="L7">
-        <v>1.078267518150141</v>
+        <v>1.053681644797889</v>
       </c>
       <c r="M7">
-        <v>1.088005921995167</v>
+        <v>1.058751814027667</v>
       </c>
       <c r="N7">
-        <v>1.078067936494134</v>
+        <v>1.057356793452543</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.069943374791409</v>
+        <v>1.025776829099343</v>
       </c>
       <c r="D8">
-        <v>1.053130955638297</v>
+        <v>1.04938974934025</v>
       </c>
       <c r="E8">
-        <v>1.073812600355125</v>
+        <v>1.033564300068518</v>
       </c>
       <c r="F8">
-        <v>1.083332882077527</v>
+        <v>1.037677212837088</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052059383765366</v>
+        <v>1.061257224540221</v>
       </c>
       <c r="J8">
-        <v>1.074761458818157</v>
+        <v>1.046662837055004</v>
       </c>
       <c r="K8">
-        <v>1.055815445491883</v>
+        <v>1.059939819069351</v>
       </c>
       <c r="L8">
-        <v>1.076442474660482</v>
+        <v>1.044308033450213</v>
       </c>
       <c r="M8">
-        <v>1.085938371413329</v>
+        <v>1.048369907453689</v>
       </c>
       <c r="N8">
-        <v>1.076287743366541</v>
+        <v>1.048149218337528</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.065986562426904</v>
+        <v>1.003588608740123</v>
       </c>
       <c r="D9">
-        <v>1.051177129209921</v>
+        <v>1.037976748020335</v>
       </c>
       <c r="E9">
-        <v>1.070145369123661</v>
+        <v>1.013436278011228</v>
       </c>
       <c r="F9">
-        <v>1.079243823024055</v>
+        <v>1.015644364629408</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050905454610062</v>
+        <v>1.053243144585872</v>
       </c>
       <c r="J9">
-        <v>1.071604171129086</v>
+        <v>1.029015277318122</v>
       </c>
       <c r="K9">
-        <v>1.05429097932591</v>
+        <v>1.050482326457697</v>
       </c>
       <c r="L9">
-        <v>1.073200440912244</v>
+        <v>1.026315058464648</v>
       </c>
       <c r="M9">
-        <v>1.082271499842906</v>
+        <v>1.028488621568302</v>
       </c>
       <c r="N9">
-        <v>1.073125971966806</v>
+        <v>1.030476597041615</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.063332833442516</v>
+        <v>0.9873312014711145</v>
       </c>
       <c r="D10">
-        <v>1.049867065189327</v>
+        <v>1.029699718418287</v>
       </c>
       <c r="E10">
-        <v>1.067684698031412</v>
+        <v>0.9987087795976497</v>
       </c>
       <c r="F10">
-        <v>1.076503357811949</v>
+        <v>0.9995423884326159</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050123078060673</v>
+        <v>1.047314320864401</v>
       </c>
       <c r="J10">
-        <v>1.069481900813786</v>
+        <v>1.016056635826734</v>
       </c>
       <c r="K10">
-        <v>1.053263839170663</v>
+        <v>1.043552670582306</v>
       </c>
       <c r="L10">
-        <v>1.071020783694938</v>
+        <v>1.013101386628996</v>
       </c>
       <c r="M10">
-        <v>1.079810221834258</v>
+        <v>1.013919910115821</v>
       </c>
       <c r="N10">
-        <v>1.071000687784231</v>
+        <v>1.017499552792933</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.062179777389083</v>
+        <v>0.9798655579292643</v>
       </c>
       <c r="D11">
-        <v>1.049297951054669</v>
+        <v>1.025925369141494</v>
       </c>
       <c r="E11">
-        <v>1.066615255989229</v>
+        <v>0.991952493787686</v>
       </c>
       <c r="F11">
-        <v>1.075313081842417</v>
+        <v>0.9921595379146699</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049781134562833</v>
+        <v>1.044580391779329</v>
       </c>
       <c r="J11">
-        <v>1.068558640491132</v>
+        <v>1.010100622799431</v>
       </c>
       <c r="K11">
-        <v>1.052816446968763</v>
+        <v>1.040374390286355</v>
       </c>
       <c r="L11">
-        <v>1.07007245468698</v>
+        <v>1.007027786956741</v>
       </c>
       <c r="M11">
-        <v>1.078740312801012</v>
+        <v>1.007230844204141</v>
       </c>
       <c r="N11">
-        <v>1.070076116326018</v>
+        <v>1.011535081543967</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.061750866520089</v>
+        <v>0.9770202753900254</v>
       </c>
       <c r="D12">
-        <v>1.049086273843678</v>
+        <v>1.024491518338304</v>
       </c>
       <c r="E12">
-        <v>1.066217407349485</v>
+        <v>0.9893787814278526</v>
       </c>
       <c r="F12">
-        <v>1.074870396460832</v>
+        <v>0.9893476802542337</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049653640041012</v>
+        <v>1.043536964168691</v>
       </c>
       <c r="J12">
-        <v>1.068215039747553</v>
+        <v>1.007830055889512</v>
       </c>
       <c r="K12">
-        <v>1.052649864578231</v>
+        <v>1.039164075251278</v>
       </c>
       <c r="L12">
-        <v>1.069719508567052</v>
+        <v>1.004712335948942</v>
       </c>
       <c r="M12">
-        <v>1.078342259730862</v>
+        <v>1.004681847568575</v>
       </c>
       <c r="N12">
-        <v>1.069732027629972</v>
+        <v>1.009261290168598</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.061842897448081</v>
+        <v>0.9776340141605245</v>
       </c>
       <c r="D13">
-        <v>1.049131692210494</v>
+        <v>1.024800586603361</v>
       </c>
       <c r="E13">
-        <v>1.066302775107383</v>
+        <v>0.989933882766715</v>
       </c>
       <c r="F13">
-        <v>1.074965379779009</v>
+        <v>0.9899541220199251</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049681009923101</v>
+        <v>1.043762098557864</v>
       </c>
       <c r="J13">
-        <v>1.06828877340408</v>
+        <v>1.008319851886661</v>
       </c>
       <c r="K13">
-        <v>1.052685615299008</v>
+        <v>1.039425093918874</v>
       </c>
       <c r="L13">
-        <v>1.069795248377596</v>
+        <v>1.005211816731203</v>
       </c>
       <c r="M13">
-        <v>1.07842767274591</v>
+        <v>1.005231659162372</v>
       </c>
       <c r="N13">
-        <v>1.069805865996748</v>
+        <v>1.009751781732243</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.062144336120505</v>
+        <v>0.979631891903407</v>
       </c>
       <c r="D14">
-        <v>1.04928045955187</v>
+        <v>1.02580751826857</v>
       </c>
       <c r="E14">
-        <v>1.066582382238759</v>
+        <v>0.9917411042050803</v>
       </c>
       <c r="F14">
-        <v>1.075276500936099</v>
+        <v>0.9919285780362378</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049770605679051</v>
+        <v>1.044494729902454</v>
       </c>
       <c r="J14">
-        <v>1.068530251908536</v>
+        <v>1.009914166505824</v>
       </c>
       <c r="K14">
-        <v>1.05280268542783</v>
+        <v>1.040274972064004</v>
       </c>
       <c r="L14">
-        <v>1.070043294305403</v>
+        <v>1.006837645999398</v>
       </c>
       <c r="M14">
-        <v>1.078707422785721</v>
+        <v>1.007021502937371</v>
       </c>
       <c r="N14">
-        <v>1.07004768742838</v>
+        <v>1.011348360461037</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.062329980480391</v>
+        <v>0.9808530107519303</v>
       </c>
       <c r="D15">
-        <v>1.04937208237713</v>
+        <v>1.0264235879628</v>
       </c>
       <c r="E15">
-        <v>1.066754576074417</v>
+        <v>0.9928458590419867</v>
       </c>
       <c r="F15">
-        <v>1.07546811769995</v>
+        <v>0.9931356315988509</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049825744619674</v>
+        <v>1.044942332977029</v>
       </c>
       <c r="J15">
-        <v>1.068678946800321</v>
+        <v>1.010888546737255</v>
       </c>
       <c r="K15">
-        <v>1.05287476290041</v>
+        <v>1.040794565491475</v>
       </c>
       <c r="L15">
-        <v>1.070196031109258</v>
+        <v>1.007831279153527</v>
       </c>
       <c r="M15">
-        <v>1.078879700559489</v>
+        <v>1.008115516563638</v>
       </c>
       <c r="N15">
-        <v>1.070196593483966</v>
+        <v>1.012324124424159</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.063409272762528</v>
+        <v>0.9878170284909946</v>
       </c>
       <c r="D16">
-        <v>1.04990479604125</v>
+        <v>1.029945931155201</v>
       </c>
       <c r="E16">
-        <v>1.067755588682239</v>
+        <v>0.9991486009630645</v>
       </c>
       <c r="F16">
-        <v>1.076582274398273</v>
+        <v>1.000023074908849</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050145704497598</v>
+        <v>1.047492016189238</v>
       </c>
       <c r="J16">
-        <v>1.069543082684512</v>
+        <v>1.016444128626137</v>
       </c>
       <c r="K16">
-        <v>1.053293475175622</v>
+        <v>1.043759609426999</v>
       </c>
       <c r="L16">
-        <v>1.071083624598952</v>
+        <v>1.013496521714131</v>
       </c>
       <c r="M16">
-        <v>1.07988113915084</v>
+        <v>1.014355236223645</v>
       </c>
       <c r="N16">
-        <v>1.07106195654023</v>
+        <v>1.017887595876557</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.064085208094909</v>
+        <v>0.9920659630159325</v>
       </c>
       <c r="D17">
-        <v>1.05023845484842</v>
+        <v>1.032102293750282</v>
       </c>
       <c r="E17">
-        <v>1.068382427264984</v>
+        <v>1.002995961785336</v>
       </c>
       <c r="F17">
-        <v>1.077280169547159</v>
+        <v>1.004228345041448</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.05034555462376</v>
+        <v>1.04904485521906</v>
       </c>
       <c r="J17">
-        <v>1.070083970188753</v>
+        <v>1.019832486290895</v>
       </c>
       <c r="K17">
-        <v>1.053555413466054</v>
+        <v>1.045569930235497</v>
       </c>
       <c r="L17">
-        <v>1.071639167083634</v>
+        <v>1.016951664067132</v>
       </c>
       <c r="M17">
-        <v>1.080508190068992</v>
+        <v>1.018162640020645</v>
       </c>
       <c r="N17">
-        <v>1.071603612166768</v>
+        <v>1.02128076539785</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.064479087505987</v>
+        <v>0.9945038095159855</v>
       </c>
       <c r="D18">
-        <v>1.050432894463665</v>
+        <v>1.033341948626108</v>
       </c>
       <c r="E18">
-        <v>1.068747671074733</v>
+        <v>1.005204022302233</v>
       </c>
       <c r="F18">
-        <v>1.077686890311059</v>
+        <v>1.006642190717508</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050461818394505</v>
+        <v>1.049934734062036</v>
       </c>
       <c r="J18">
-        <v>1.070399046485356</v>
+        <v>1.021776076504006</v>
       </c>
       <c r="K18">
-        <v>1.053707943885148</v>
+        <v>1.046608947918964</v>
       </c>
       <c r="L18">
-        <v>1.071962770226518</v>
+        <v>1.018933528111883</v>
       </c>
       <c r="M18">
-        <v>1.080873538048646</v>
+        <v>1.020347247870694</v>
       </c>
       <c r="N18">
-        <v>1.071919135907852</v>
+        <v>1.023227115731997</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.064613325899027</v>
+        <v>0.9953284105561444</v>
       </c>
       <c r="D19">
-        <v>1.050499163327238</v>
+        <v>1.033761657183872</v>
       </c>
       <c r="E19">
-        <v>1.068872145712582</v>
+        <v>1.005950997920137</v>
       </c>
       <c r="F19">
-        <v>1.077825512799177</v>
+        <v>1.007458847748077</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050501409690359</v>
+        <v>1.050235547922462</v>
       </c>
       <c r="J19">
-        <v>1.070506409527151</v>
+        <v>1.022433407199404</v>
       </c>
       <c r="K19">
-        <v>1.053759909934848</v>
+        <v>1.046960442040236</v>
       </c>
       <c r="L19">
-        <v>1.072073037136225</v>
+        <v>1.019603797419609</v>
       </c>
       <c r="M19">
-        <v>1.08099804487615</v>
+        <v>1.021086202469814</v>
       </c>
       <c r="N19">
-        <v>1.072026651417481</v>
+        <v>1.023885379912378</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.064012726292989</v>
+        <v>0.9916143346365286</v>
       </c>
       <c r="D20">
-        <v>1.050202674857543</v>
+        <v>1.031872832138847</v>
       </c>
       <c r="E20">
-        <v>1.068315212893092</v>
+        <v>1.002586951821673</v>
       </c>
       <c r="F20">
-        <v>1.077205328297126</v>
+        <v>1.003781247346844</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050324144226796</v>
+        <v>1.048879910548764</v>
       </c>
       <c r="J20">
-        <v>1.070025981027323</v>
+        <v>1.019472381128196</v>
       </c>
       <c r="K20">
-        <v>1.053527336251833</v>
+        <v>1.045377469641371</v>
       </c>
       <c r="L20">
-        <v>1.07157960777503</v>
+        <v>1.016584464815224</v>
       </c>
       <c r="M20">
-        <v>1.080440954953394</v>
+        <v>1.01775793235039</v>
       </c>
       <c r="N20">
-        <v>1.071545540654077</v>
+        <v>1.020920148844514</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.062055587049491</v>
+        <v>0.9790456335414041</v>
       </c>
       <c r="D21">
-        <v>1.049236659129428</v>
+        <v>1.025511911697236</v>
       </c>
       <c r="E21">
-        <v>1.066500061882986</v>
+        <v>0.9912107568687778</v>
       </c>
       <c r="F21">
-        <v>1.075184899217881</v>
+        <v>0.9913491398924771</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04974423529644</v>
+        <v>1.044279784839623</v>
       </c>
       <c r="J21">
-        <v>1.068459160862761</v>
+        <v>1.009446345856074</v>
       </c>
       <c r="K21">
-        <v>1.052768222305595</v>
+        <v>1.040025553046511</v>
       </c>
       <c r="L21">
-        <v>1.069970270254712</v>
+        <v>1.006360579568105</v>
       </c>
       <c r="M21">
-        <v>1.078625061204233</v>
+        <v>1.006496280075991</v>
       </c>
       <c r="N21">
-        <v>1.069976495425164</v>
+        <v>1.010879875452303</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.060821491757347</v>
+        <v>0.9707201485291634</v>
       </c>
       <c r="D22">
-        <v>1.048627647364996</v>
+        <v>1.021325953121272</v>
       </c>
       <c r="E22">
-        <v>1.065355265625448</v>
+        <v>0.983682491273009</v>
       </c>
       <c r="F22">
-        <v>1.073911303937698</v>
+        <v>0.983125224669566</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049376835141342</v>
+        <v>1.041224102355229</v>
       </c>
       <c r="J22">
-        <v>1.067470208764945</v>
+        <v>1.002801512860329</v>
       </c>
       <c r="K22">
-        <v>1.052288614451337</v>
+        <v>1.03648645512258</v>
       </c>
       <c r="L22">
-        <v>1.068954390172885</v>
+        <v>0.9995842830559903</v>
       </c>
       <c r="M22">
-        <v>1.077479618632395</v>
+        <v>0.9990385536295174</v>
       </c>
       <c r="N22">
-        <v>1.068986138901936</v>
+        <v>1.004225606031532</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.061476052749939</v>
+        <v>0.9751769039786525</v>
       </c>
       <c r="D23">
-        <v>1.048950653195272</v>
+        <v>1.023563958252971</v>
       </c>
       <c r="E23">
-        <v>1.065962484611618</v>
+        <v>0.987711724795059</v>
       </c>
       <c r="F23">
-        <v>1.074586776888002</v>
+        <v>0.9875265133392721</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049571867019757</v>
+        <v>1.042860572107771</v>
       </c>
       <c r="J23">
-        <v>1.067994838824317</v>
+        <v>1.006358868913171</v>
       </c>
       <c r="K23">
-        <v>1.052543085616562</v>
+        <v>1.038380279944182</v>
       </c>
       <c r="L23">
-        <v>1.069493314055253</v>
+        <v>1.003212050589804</v>
       </c>
       <c r="M23">
-        <v>1.078087197338162</v>
+        <v>1.003030542316057</v>
       </c>
       <c r="N23">
-        <v>1.069511513996168</v>
+        <v>1.007788013938004</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.064045478880179</v>
+        <v>0.9918185305718549</v>
       </c>
       <c r="D24">
-        <v>1.050218842845199</v>
+        <v>1.031976571703336</v>
       </c>
       <c r="E24">
-        <v>1.068345585350166</v>
+        <v>1.002771876668183</v>
       </c>
       <c r="F24">
-        <v>1.077239146916753</v>
+        <v>1.003983391549626</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050333819607319</v>
+        <v>1.048954490764561</v>
       </c>
       <c r="J24">
-        <v>1.070052185113049</v>
+        <v>1.019635197983979</v>
       </c>
       <c r="K24">
-        <v>1.053540023920514</v>
+        <v>1.045464486337462</v>
       </c>
       <c r="L24">
-        <v>1.07160652140802</v>
+        <v>1.01675048927787</v>
       </c>
       <c r="M24">
-        <v>1.080471336844456</v>
+        <v>1.017940913626581</v>
       </c>
       <c r="N24">
-        <v>1.071571781952611</v>
+        <v>1.021083196918909</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.0670122209885</v>
+        <v>1.009559843914145</v>
       </c>
       <c r="D25">
-        <v>1.051683544793807</v>
+        <v>1.041035635942585</v>
       </c>
       <c r="E25">
-        <v>1.071096168954119</v>
+        <v>1.018850195238959</v>
       </c>
       <c r="F25">
-        <v>1.080303418477465</v>
+        <v>1.021567217433324</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051206060195356</v>
+        <v>1.055410075198668</v>
       </c>
       <c r="J25">
-        <v>1.072423420485558</v>
+        <v>1.03376970941056</v>
       </c>
       <c r="K25">
-        <v>1.054686979248363</v>
+        <v>1.053028655298515</v>
       </c>
       <c r="L25">
-        <v>1.074041753096982</v>
+        <v>1.031162767624051</v>
       </c>
       <c r="M25">
-        <v>1.08322235481133</v>
+        <v>1.033839707682354</v>
       </c>
       <c r="N25">
-        <v>1.073946384751334</v>
+        <v>1.035237780972966</v>
       </c>
     </row>
   </sheetData>
